--- a/casestudy/Training Curriculum 2024.xlsx
+++ b/casestudy/Training Curriculum 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_b_v\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ok\react_oct24\casestudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C30B7B4-7272-433B-A366-7D72A8655E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A4050-3CD6-4883-92B2-11FE1211AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python - Programing &amp; API " sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Data-engineering" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -601,12 +612,6 @@
 Demonstrate synthetic events by dipslaying a message when ever search criteria has changed.
 create a withEmployeeData HOC that fetches employee data and provides it to the EmployeeList component.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">demonstrate useState to manage the state of employees and searchTerm. Each time an employee is added or the search term is updated, the component re-renders with the new state.
-demonstrate useEffect hook is used to log whenever the employees list is updated. This effect runs whenever the employees state changes.
-demonstrate addEmployee function is memoized using useCallback.
-useMemo:We use useMemo to optimize the filtering of the employee list. </t>
   </si>
   <si>
     <t>Adding Employees, updating employee:
@@ -870,6 +875,11 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demonstrate useState to manage the state of employees and searchTerm. Each time an employee is added or the search term is updated, the component re-renders with the new state.
+demonstrate useEffect hook is used to log whenever the employees list is updated. This effect runs whenever the employees state changes.
+useMemo:We use useMemo to optimize the filtering of the employee list. </t>
   </si>
 </sst>
 </file>
@@ -1648,36 +1658,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.44140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="72.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27.453125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="72.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.08984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1686,13 +1696,13 @@
         <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1714,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>1</v>
       </c>
@@ -1715,27 +1725,27 @@
         <v>5</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3" s="36"/>
     </row>
-    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>8</v>
@@ -1746,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="48" t="s">
@@ -1762,7 +1772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="152.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>2</v>
       </c>
@@ -1773,27 +1783,27 @@
         <v>13</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>179</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -1802,7 +1812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A8" s="53"/>
       <c r="B8" s="53"/>
       <c r="C8" s="48" t="s">
@@ -1816,7 +1826,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="36"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1838,7 @@
       <c r="G9" s="48"/>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="48" t="s">
@@ -1842,7 +1852,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="53">
         <v>3</v>
       </c>
@@ -1853,27 +1863,27 @@
         <v>22</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>181</v>
-      </c>
       <c r="H11" s="36"/>
     </row>
-    <row r="12" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>25</v>
@@ -1884,7 +1894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="53">
         <v>4</v>
       </c>
@@ -1904,7 +1914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="48" t="s">
@@ -1920,7 +1930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="48" t="s">
@@ -1934,7 +1944,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="36"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="56" t="s">
         <v>35</v>
       </c>
@@ -1946,7 +1956,7 @@
       <c r="G16" s="48"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="9" t="s">
@@ -1962,7 +1972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
@@ -1978,7 +1988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="48" t="s">
@@ -1994,7 +2004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="48" t="s">
@@ -2010,7 +2020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="48" t="s">
@@ -2026,7 +2036,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="48"/>
@@ -2036,7 +2046,7 @@
       <c r="G22" s="48"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>50</v>
       </c>
@@ -2048,7 +2058,7 @@
       <c r="G23" s="48"/>
       <c r="H23" s="36"/>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="53"/>
       <c r="B24" s="54">
         <v>45582</v>
@@ -2066,7 +2076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="48" t="s">
@@ -2082,7 +2092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="59" t="s">
@@ -2098,7 +2108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="48" t="s">
@@ -2114,7 +2124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="48" t="s">
@@ -2130,7 +2140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="48" t="s">
@@ -2144,7 +2154,7 @@
       <c r="G29" s="48"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="48"/>
@@ -2154,7 +2164,7 @@
       <c r="G30" s="48"/>
       <c r="H30" s="36"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="48"/>
@@ -2173,30 +2183,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C2CE1-ECDB-1349-9F80-31115684DAED}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="82.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="71.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="56.88671875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="5"/>
+    <col min="1" max="1" width="5.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="82.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="71.36328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -2211,7 +2221,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2228,11 +2238,11 @@
         <v>120</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -2247,10 +2257,10 @@
         <v>123</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -2265,15 +2275,15 @@
         <v>124</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="158.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="158.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>75</v>
@@ -2282,11 +2292,11 @@
         <v>76</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="F5" s="36"/>
     </row>
-    <row r="6" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -2298,18 +2308,18 @@
         <v>78</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>79</v>
@@ -2318,13 +2328,13 @@
         <v>80</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -2336,13 +2346,13 @@
         <v>82</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -2354,13 +2364,13 @@
         <v>84</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -2372,13 +2382,13 @@
         <v>86</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -2390,18 +2400,18 @@
         <v>88</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>89</v>
@@ -2410,13 +2420,13 @@
         <v>90</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2427,13 +2437,13 @@
         <v>93</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2443,13 +2453,13 @@
         <v>95</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2458,13 +2468,13 @@
         <v>97</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2473,13 +2483,13 @@
         <v>99</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -2489,7 +2499,7 @@
         <v>101</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>102</v>
@@ -2508,20 +2518,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6328125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="50">
         <v>45583</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2549,7 +2559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2591,7 +2601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2605,139 +2615,139 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="18"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2756,129 +2766,129 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="1:4" ht="55.75" customHeight="1" thickBot="1" x14ac:dyDescent="1.4">
       <c r="A1" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="60"/>
     </row>
-    <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="39">
         <v>45572</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="39">
         <v>45575</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="40" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="s">
+      <c r="D4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="39">
         <v>45573</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="39">
         <v>45576</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="40" t="s">
-        <v>159</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="39">
         <v>45574</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="39">
         <v>45579</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="43"/>
     </row>
-    <row r="9" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="39">
         <v>45581</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="39">
         <v>45580</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="43"/>
       <c r="D10" s="43"/>
     </row>
-    <row r="11" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="40" t="s">
-        <v>166</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -2893,26 +2903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90829470-ebf4-4ca0-bc31-a67671a44aec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="985a37f6-8122-4684-9f79-d2764cf4d753" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A7FF9D0D33B0B4A8EB6012547E18A0E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b83050f49e24cf3229d0a2fc2b6aee2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90829470-ebf4-4ca0-bc31-a67671a44aec" xmlns:ns3="985a37f6-8122-4684-9f79-d2764cf4d753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1261ecdf8164bfde77868c1ac31d090c" ns2:_="" ns3:_="">
     <xsd:import namespace="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
@@ -3135,10 +3125,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90829470-ebf4-4ca0-bc31-a67671a44aec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="985a37f6-8122-4684-9f79-d2764cf4d753" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC031737-C7DA-4FB9-B5BE-E90E580B92E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C3ED2F-B548-45DF-A287-2B2044BAB8D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
+    <ds:schemaRef ds:uri="985a37f6-8122-4684-9f79-d2764cf4d753"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3155,20 +3176,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C3ED2F-B548-45DF-A287-2B2044BAB8D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC031737-C7DA-4FB9-B5BE-E90E580B92E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
-    <ds:schemaRef ds:uri="985a37f6-8122-4684-9f79-d2764cf4d753"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/casestudy/Training Curriculum 2024.xlsx
+++ b/casestudy/Training Curriculum 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ok\react_oct24\casestudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A4050-3CD6-4883-92B2-11FE1211AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03C73B-2AFC-421D-A697-1180E855DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2184,10 +2184,10 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2903,6 +2903,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90829470-ebf4-4ca0-bc31-a67671a44aec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="985a37f6-8122-4684-9f79-d2764cf4d753" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A7FF9D0D33B0B4A8EB6012547E18A0E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b83050f49e24cf3229d0a2fc2b6aee2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90829470-ebf4-4ca0-bc31-a67671a44aec" xmlns:ns3="985a37f6-8122-4684-9f79-d2764cf4d753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1261ecdf8164bfde77868c1ac31d090c" ns2:_="" ns3:_="">
     <xsd:import namespace="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
@@ -3125,27 +3145,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90829470-ebf4-4ca0-bc31-a67671a44aec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="985a37f6-8122-4684-9f79-d2764cf4d753" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC031737-C7DA-4FB9-B5BE-E90E580B92E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0412F4-BAD8-43DD-9301-0A5038342EC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
+    <ds:schemaRef ds:uri="985a37f6-8122-4684-9f79-d2764cf4d753"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C3ED2F-B548-45DF-A287-2B2044BAB8D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3162,23 +3181,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE0412F4-BAD8-43DD-9301-0A5038342EC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
-    <ds:schemaRef ds:uri="985a37f6-8122-4684-9f79-d2764cf4d753"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC031737-C7DA-4FB9-B5BE-E90E580B92E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/casestudy/Training Curriculum 2024.xlsx
+++ b/casestudy/Training Curriculum 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ok\react_oct24\casestudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03C73B-2AFC-421D-A697-1180E855DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6134366-A037-4F42-8DF7-042575B42A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python - Programing &amp; API " sheetId="1" r:id="rId1"/>
@@ -2184,10 +2184,10 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2903,26 +2903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90829470-ebf4-4ca0-bc31-a67671a44aec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="985a37f6-8122-4684-9f79-d2764cf4d753" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A7FF9D0D33B0B4A8EB6012547E18A0E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b83050f49e24cf3229d0a2fc2b6aee2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90829470-ebf4-4ca0-bc31-a67671a44aec" xmlns:ns3="985a37f6-8122-4684-9f79-d2764cf4d753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1261ecdf8164bfde77868c1ac31d090c" ns2:_="" ns3:_="">
     <xsd:import namespace="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
@@ -3145,10 +3125,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90829470-ebf4-4ca0-bc31-a67671a44aec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="985a37f6-8122-4684-9f79-d2764cf4d753" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC031737-C7DA-4FB9-B5BE-E90E580B92E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C3ED2F-B548-45DF-A287-2B2044BAB8D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
+    <ds:schemaRef ds:uri="985a37f6-8122-4684-9f79-d2764cf4d753"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3165,20 +3176,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C3ED2F-B548-45DF-A287-2B2044BAB8D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC031737-C7DA-4FB9-B5BE-E90E580B92E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="90829470-ebf4-4ca0-bc31-a67671a44aec"/>
-    <ds:schemaRef ds:uri="985a37f6-8122-4684-9f79-d2764cf4d753"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>